--- a/src/Pickles/MIL_pickles/Output/AN170/AN170_TestScript_Desktop_Admin_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN170/AN170_TestScript_Desktop_Admin_Validation_UR.xlsx
@@ -11,8 +11,7 @@
     <x:sheet name="CUSTOMERWORKFLOWUK" sheetId="4" r:id="rId4"/>
     <x:sheet name="DESKTOPLICENSING" sheetId="5" r:id="rId5"/>
     <x:sheet name="FOLDERWATCHER" sheetId="6" r:id="rId6"/>
-    <x:sheet name="SHELLINTEGRATION" sheetId="7" r:id="rId7"/>
-    <x:sheet name="UPGRADECLIENT" sheetId="8" r:id="rId8"/>
+    <x:sheet name="UPGRADECLIENT" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <x:si>
     <x:t>CustomerWorkflowEU</x:t>
   </x:si>
@@ -457,41 +456,6 @@
   </x:si>
   <x:si>
     <x:t>the watched folder is configured to the second location</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ShellIntegration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR, @UR033, @DesktopOnly, @Admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>As a dentist
-I want to open image files with AssistDent
-So that I can use AssistDent with using a dental imaging app</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OpenWith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR033-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I have an image file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>in Explorer I right click, choose open with and find AssistDent.exe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the image opens in AssistDent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OpenWithMenuOption</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR033-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>in Explorer I right click, choose Open With AssistDent menu option</x:t>
   </x:si>
   <x:si>
     <x:t>UpgradeClient</x:t>
@@ -942,7 +906,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B7"/>
+  <x:dimension ref="A1:B6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -950,7 +914,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -976,11 +940,6 @@
     <x:row r="6" spans="1:2">
       <x:c r="B6" s="4" t="s">
         <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="B7" s="4" t="s">
-        <x:v>154</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -989,8 +948,7 @@
     <x:hyperlink ref="B3" location="'CUSTOMERWORKFLOWUK'!A1" display="CustomerWorkflowUK"/>
     <x:hyperlink ref="B4" location="'DESKTOPLICENSING'!A1" display="DesktopLicensing"/>
     <x:hyperlink ref="B5" location="'FOLDERWATCHER'!A1" display="FolderWatcher"/>
-    <x:hyperlink ref="B6" location="'SHELLINTEGRATION'!A1" display="ShellIntegration"/>
-    <x:hyperlink ref="B7" location="'UPGRADECLIENT'!A1" display="UpgradeClient"/>
+    <x:hyperlink ref="B6" location="'UPGRADECLIENT'!A1" display="UpgradeClient"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -2363,7 +2321,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D17"/>
+  <x:dimension ref="A1:D24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2414,7 +2372,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -2422,12 +2380,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -2435,7 +2393,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -2444,7 +2402,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -2452,7 +2410,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -2460,126 +2418,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D24"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>154</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="B3" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="B5" s="1" t="s">
-        <x:v>157</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="B6" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4"/>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>160</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="B12" s="1" t="s">
-        <x:v>161</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="B13" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>162</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4"/>
-    <x:row r="15" spans="1:4">
-      <x:c r="C15" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="B19" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -2587,7 +2431,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4"/>
@@ -2596,7 +2440,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -2612,7 +2456,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/Pickles/MIL_pickles/Output/AN170/AN170_TestScript_Desktop_Admin_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN170/AN170_TestScript_Desktop_Admin_Validation_UR.xlsx
@@ -11,7 +11,9 @@
     <x:sheet name="CUSTOMERWORKFLOWUK" sheetId="4" r:id="rId4"/>
     <x:sheet name="DESKTOPLICENSING" sheetId="5" r:id="rId5"/>
     <x:sheet name="FOLDERWATCHER" sheetId="6" r:id="rId6"/>
-    <x:sheet name="UPGRADECLIENT" sheetId="7" r:id="rId7"/>
+    <x:sheet name="OPENIMAGE" sheetId="7" r:id="rId7"/>
+    <x:sheet name="SHELLINTEGRATION" sheetId="8" r:id="rId8"/>
+    <x:sheet name="UPGRADECLIENT" sheetId="9" r:id="rId9"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <x:si>
     <x:t>CustomerWorkflowEU</x:t>
   </x:si>
@@ -243,10 +245,10 @@
     <x:t>I note the licece number and user ID</x:t>
   </x:si>
   <x:si>
-    <x:t>I delete the settings file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I delete license on Cryptolens</x:t>
+    <x:t>I block licence on Cryptolens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I delete user on Cryptolens</x:t>
   </x:si>
   <x:si>
     <x:t>I delete user on Stripe</x:t>
@@ -255,12 +257,12 @@
     <x:t>I restart AssistDent</x:t>
   </x:si>
   <x:si>
+    <x:t>AssistDent does not start</x:t>
+  </x:si>
+  <x:si>
     <x:t>I am asked to register</x:t>
   </x:si>
   <x:si>
-    <x:t>AssistDent does not start</x:t>
-  </x:si>
-  <x:si>
     <x:t>CannotUseIn</x:t>
   </x:si>
   <x:si>
@@ -292,6 +294,9 @@
   </x:si>
   <x:si>
     <x:t>a customer is created on Stripe with the correct details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a %userlocaldata%\MIL\AssistDent\MIL.Caries.Desktop.UserSettings is created with corresponding values</x:t>
   </x:si>
   <x:si>
     <x:t>DisplayValidLicence</x:t>
@@ -456,6 +461,91 @@
   </x:si>
   <x:si>
     <x:t>the watched folder is configured to the second location</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OpenImage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR, @UR034, @DesktopOnly, @Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>As a dentist
+I want to open image files from within AssistDent
+So that I have a familiar, app-first, way of using AssistDent with my images</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StartFromDesktop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR034-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I have installed AssistDent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I double click the AssistDent desktop shortcut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AssistDent starts and prompts me to open an image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StartFromStartMenu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR034-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I click the AssistDent start menu shortcut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR034-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I have started AssistDent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I click the Open Image button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>browse for an image file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the image is opened and analysis performed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ShellIntegration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR, @UR033, @DesktopOnly, @Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>As a dentist
+I want to open image files with AssistDent
+So that I can use AssistDent with using a dental imaging app</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OpenWith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR033-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I have an image file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>in Explorer I right click choose open with and find AssistDent.exe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the image opens in AssistDent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OpenWithMenuOption</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR033-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>in Explorer I right click choose Open With AssistDent menu option</x:t>
   </x:si>
   <x:si>
     <x:t>UpgradeClient</x:t>
@@ -906,7 +996,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B6"/>
+  <x:dimension ref="A1:B8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -914,7 +1004,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -934,12 +1024,22 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="B5" s="4" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="B6" s="4" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="B7" s="4" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="B8" s="4" t="s">
+        <x:v>171</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -948,7 +1048,9 @@
     <x:hyperlink ref="B3" location="'CUSTOMERWORKFLOWUK'!A1" display="CustomerWorkflowUK"/>
     <x:hyperlink ref="B4" location="'DESKTOPLICENSING'!A1" display="DesktopLicensing"/>
     <x:hyperlink ref="B5" location="'FOLDERWATCHER'!A1" display="FolderWatcher"/>
-    <x:hyperlink ref="B6" location="'UPGRADECLIENT'!A1" display="UpgradeClient"/>
+    <x:hyperlink ref="B6" location="'OPENIMAGE'!A1" display="OpenImage"/>
+    <x:hyperlink ref="B7" location="'SHELLINTEGRATION'!A1" display="ShellIntegration"/>
+    <x:hyperlink ref="B8" location="'UPGRADECLIENT'!A1" display="UpgradeClient"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1565,7 +1667,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D84"/>
+  <x:dimension ref="A1:D85"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1718,7 +1820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -1791,39 +1893,39 @@
         <x:v>88</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:4">
-      <x:c r="B37" s="1" t="s">
+    <x:row r="36" spans="1:4">
+      <x:c r="C36" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
-      <x:c r="B38" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="B38" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:4"/>
-    <x:row r="40" spans="1:4">
-      <x:c r="C40" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D40" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="B39" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4"/>
     <x:row r="41" spans="1:4">
       <x:c r="C41" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
       <x:c r="C42" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>92</x:v>
@@ -1831,7 +1933,7 @@
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="C43" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
         <x:v>93</x:v>
@@ -1839,7 +1941,7 @@
     </x:row>
     <x:row r="44" spans="1:4">
       <x:c r="C44" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
         <x:v>94</x:v>
@@ -1853,85 +1955,85 @@
         <x:v>95</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:4">
-      <x:c r="B47" s="1" t="s">
+    <x:row r="46" spans="1:4">
+      <x:c r="C46" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4">
-      <x:c r="B48" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
+      <x:c r="B48" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:4"/>
-    <x:row r="50" spans="1:4">
-      <x:c r="C50" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D50" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="B49" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4"/>
     <x:row r="51" spans="1:4">
       <x:c r="C51" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:4">
       <x:c r="C52" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:4">
       <x:c r="C53" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:4">
       <x:c r="C54" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:4">
-      <x:c r="B56" s="1" t="s">
+    <x:row r="55" spans="1:4">
+      <x:c r="C55" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:4">
-      <x:c r="B57" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C57" s="2" t="s">
+      <x:c r="B57" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:4"/>
-    <x:row r="59" spans="1:4">
-      <x:c r="C59" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D59" s="0" t="s">
+    <x:row r="58" spans="1:4">
+      <x:c r="B58" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
     </x:row>
+    <x:row r="59" spans="1:4"/>
     <x:row r="60" spans="1:4">
       <x:c r="C60" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
         <x:v>104</x:v>
@@ -1939,53 +2041,53 @@
     </x:row>
     <x:row r="61" spans="1:4">
       <x:c r="C61" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:4">
       <x:c r="C62" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:4">
       <x:c r="C63" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:4">
-      <x:c r="B65" s="1" t="s">
+    <x:row r="64" spans="1:4">
+      <x:c r="C64" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:4">
-      <x:c r="B66" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C66" s="2" t="s">
+      <x:c r="B66" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:4"/>
-    <x:row r="68" spans="1:4">
-      <x:c r="C68" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D68" s="0" t="s">
+    <x:row r="67" spans="1:4">
+      <x:c r="B67" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
     </x:row>
+    <x:row r="68" spans="1:4"/>
     <x:row r="69" spans="1:4">
       <x:c r="C69" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
         <x:v>110</x:v>
@@ -2017,7 +2119,7 @@
     </x:row>
     <x:row r="73" spans="1:4">
       <x:c r="C73" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
         <x:v>114</x:v>
@@ -2025,45 +2127,45 @@
     </x:row>
     <x:row r="74" spans="1:4">
       <x:c r="C74" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:4">
       <x:c r="C75" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:4">
-      <x:c r="B77" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:4">
+      <x:c r="C76" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:4">
-      <x:c r="B78" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C78" s="2" t="s">
+      <x:c r="B78" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:4"/>
-    <x:row r="80" spans="1:4">
-      <x:c r="C80" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D80" s="0" t="s">
+    <x:row r="79" spans="1:4">
+      <x:c r="B79" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C79" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
     </x:row>
+    <x:row r="80" spans="1:4"/>
     <x:row r="81" spans="1:4">
       <x:c r="C81" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
         <x:v>119</x:v>
@@ -2071,7 +2173,7 @@
     </x:row>
     <x:row r="82" spans="1:4">
       <x:c r="C82" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
         <x:v>120</x:v>
@@ -2079,18 +2181,26 @@
     </x:row>
     <x:row r="83" spans="1:4">
       <x:c r="C83" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:4">
       <x:c r="C84" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:4">
+      <x:c r="C85" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>122</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2115,7 +2225,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -2123,17 +2233,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -2141,7 +2251,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -2150,7 +2260,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2158,12 +2268,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="B11" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -2171,7 +2281,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4"/>
@@ -2180,7 +2290,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -2188,7 +2298,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -2196,7 +2306,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -2204,12 +2314,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="B19" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -2217,7 +2327,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4"/>
@@ -2226,7 +2336,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -2234,7 +2344,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -2242,7 +2352,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
@@ -2250,12 +2360,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="B27" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -2263,7 +2373,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4"/>
@@ -2272,7 +2382,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
@@ -2280,7 +2390,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
@@ -2288,7 +2398,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
@@ -2296,7 +2406,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
@@ -2304,7 +2414,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2321,6 +2431,280 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
+  <x:dimension ref="A1:D25"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="B2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="B6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="B13" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4"/>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="B19" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="B20" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4"/>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="C23" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="C25" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D17"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="B2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="B6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="B13" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4"/>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
   <x:dimension ref="A1:D24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
@@ -2329,7 +2713,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -2337,17 +2721,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -2355,7 +2739,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -2364,7 +2748,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2372,7 +2756,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -2380,12 +2764,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -2393,7 +2777,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -2402,7 +2786,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -2410,7 +2794,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -2418,12 +2802,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="B19" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -2431,7 +2815,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4"/>
@@ -2440,7 +2824,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -2448,7 +2832,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -2456,7 +2840,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
